--- a/工资/工资.xlsx
+++ b/工资/工资.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\helloword\工资\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>竞品</t>
   </si>
@@ -91,17 +96,32 @@
   </si>
   <si>
     <t>五月</t>
+  </si>
+  <si>
+    <t>https://mail.tobosoft.com.cn/cgi-bin/openwebmail/openwebmail-main.pl?sessionid=shuwen@tobasoft.com.cn*mail.tobosoft.com.cn-session-0.158616868636699&amp;action=listmessages_afterlogin</t>
+  </si>
+  <si>
+    <t>shuwen@tobasoft.com.cn</t>
+  </si>
+  <si>
+    <t>J5qchpSYTZ9jg478</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -189,84 +209,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -288,7 +243,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -537,21 +492,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -577,7 +532,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -600,7 +555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -623,7 +578,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -646,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -672,7 +627,7 @@
         <v>1130.43</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -699,6 +654,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I2:I30">
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
@@ -714,86 +670,113 @@
   <conditionalFormatting sqref="I34:I53 I66:I71">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M31 M32 M33 M77 M78 M79 M80 M81 M82 M2:M30 M34:M50 M51:M65 M66:M69 M70:M76 M88:M1048576">
       <formula1>"跟进中,竞品,无效线索,已合作,已有人对接,已有同类产品,已约面谈,转化失败"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1 O2:O30 O34:O53 O54:O65 O66:O71 O72:O76 O77:O82 O88:O1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M83 M87 M84:M86">
-      <formula1>[1]Sheet2!#REF!</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'G:\helloword\工资\[APP线索-成都.xlsx]Sheet2'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>M83 M87 M84:M86</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/工资/工资.xlsx
+++ b/工资/工资.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9345" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>竞品</t>
   </si>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>J5qchpSYTZ9jg478</t>
+  </si>
+  <si>
+    <t>六月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -493,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -615,7 +627,7 @@
         <v>-0.5</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -632,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -640,17 +652,28 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="F6" t="s">
+        <v>29</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1772.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
